--- a/biology/Médecine/Splénomégalie_myéloïde/Splénomégalie_myéloïde.xlsx
+++ b/biology/Médecine/Splénomégalie_myéloïde/Splénomégalie_myéloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nom%C3%A9galie_my%C3%A9lo%C3%AFde</t>
+          <t>Splénomégalie_myéloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La splénomégalie myéloïde ou myélofibrose primitive avec métaplasie myéloïde est un syndrome myéloprolifératif caractérisé par un envahissement de la moelle osseuse par du tissu fibreux collagène.
 L'envahissement de la moelle osseuse par une fibrose mutilante et la néo-ostéogénèse empêche la formation normale des éléments sanguins (hématopoïèse). 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nom%C3%A9galie_my%C3%A9lo%C3%AFde</t>
+          <t>Splénomégalie_myéloïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Présentation clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome anémique chronique, insidieux et bien toléré : asthénie, dyspnée, signes coronariens ;
 signes généraux : asthénie, amaigrissement, sueurs nocturnes, fièvre ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nom%C3%A9galie_my%C3%A9lo%C3%AFde</t>
+          <t>Splénomégalie_myéloïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Splénomégalie : 95 % des cas, devenant volumineuse ;
 anomalies de l'hémogramme :
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spl%C3%A9nom%C3%A9galie_my%C3%A9lo%C3%AFde</t>
+          <t>Splénomégalie_myéloïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,10 +604,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement est essentiellement symptomatique et utilise les transfusions, les antibiotiques, les corticoïdes et l'hydroxyurée. La greffe de moelle allogénique est rarement possible.
-Un inhibiteur de la télomérase, l’imételstat est depuis 2014 en phase d'essai clinique pour traiter la myélofibrose primitive[1]
+Un inhibiteur de la télomérase, l’imételstat est depuis 2014 en phase d'essai clinique pour traiter la myélofibrose primitive
 </t>
         </is>
       </c>
